--- a/docs/Sprint 7 - 1905 To 0106/LogTime_sprint 7.xlsx
+++ b/docs/Sprint 7 - 1905 To 0106/LogTime_sprint 7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -20,54 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>order history</t>
-  </si>
-  <si>
-    <t>05/05/2014</t>
-  </si>
-  <si>
-    <t>06/05/2014</t>
-  </si>
-  <si>
-    <t>07/05/2014</t>
-  </si>
-  <si>
-    <t>08/05/2014</t>
-  </si>
-  <si>
-    <t>09/05/2014</t>
-  </si>
-  <si>
-    <t>10/05/2014</t>
-  </si>
-  <si>
-    <t>11/05/2014</t>
-  </si>
-  <si>
-    <t>12/05/2014</t>
-  </si>
-  <si>
-    <t>13/05/2014</t>
-  </si>
-  <si>
-    <t>14/05/2014</t>
-  </si>
-  <si>
-    <t>15/05/2014</t>
-  </si>
-  <si>
-    <t>16/05/2014</t>
-  </si>
-  <si>
-    <t>17/05/2014</t>
-  </si>
-  <si>
-    <t>18/05/2014</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+  <si>
+    <t>Thực hiện Sync với ngân lượng.</t>
+  </si>
+  <si>
+    <t>Test, chạy thử hệ thống trên production system</t>
+  </si>
+  <si>
+    <t>19/05/2014</t>
+  </si>
+  <si>
+    <t>20/05/2014</t>
+  </si>
+  <si>
+    <t>21/05/2014</t>
+  </si>
+  <si>
+    <t>22/05/2014</t>
+  </si>
+  <si>
+    <t>23/05/2014</t>
+  </si>
+  <si>
+    <t>24/05/2014</t>
+  </si>
+  <si>
+    <t>25/05/2014</t>
+  </si>
+  <si>
+    <t>26/05/2014</t>
+  </si>
+  <si>
+    <t>27/05/2014</t>
+  </si>
+  <si>
+    <t>28/05/2014</t>
+  </si>
+  <si>
+    <t>29/05/2014</t>
+  </si>
+  <si>
+    <t>30/05/2014</t>
+  </si>
+  <si>
+    <t>31/05/2014</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Hiện tại admin có thể tìm kiếm order</t>
+  </si>
+  <si>
+    <t>Quản lý order</t>
+  </si>
+  <si>
+    <t>refactor ajax API</t>
+  </si>
+  <si>
+    <t>Update invoice detail - portal admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Mail template</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Đăng sản phẩm có các tab thông tin cơ bản giá, category, image, meta</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Phân quyền admin</t>
   </si>
 </sst>
 </file>
@@ -125,7 +155,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
@@ -147,48 +177,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O13" totalsRowCount="1" headerRowDxfId="1">
   <autoFilter ref="A1:O12"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="order history"/>
-    <tableColumn id="2" name="05/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[05/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="06/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[06/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="07/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[07/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="08/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[08/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="09/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[09/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="10/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[10/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="11/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[11/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="12/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[12/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="13/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[13/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="14/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[14/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="15/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[15/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="16/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[16/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="17/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[17/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="18/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[18/05/2014])</totalsRowFormula>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="19/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[19/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="20/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[20/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="21/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[21/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="22/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[22/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="23/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[23/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="24/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[24/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="25/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[25/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="26/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[26/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="27/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[27/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="28/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[28/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="29/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[29/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="30/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[30/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="31/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[31/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="01/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[01/06/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -199,48 +229,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O10" totalsRowCount="1" headerRowDxfId="0">
   <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="05/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[05/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="06/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[06/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="07/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[07/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="08/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[08/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="09/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[09/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="10/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[10/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="11/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[11/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="12/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[12/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="13/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[13/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="14/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[14/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="15/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[15/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="16/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[16/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="17/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[17/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="18/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[18/05/2014])</totalsRowFormula>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="19/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[19/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="20/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[20/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="21/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[21/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="22/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[22/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="23/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[23/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="24/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[24/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="25/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[25/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="26/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[26/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="27/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[27/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="28/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[28/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="29/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[29/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="30/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[30/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="31/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[31/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="01/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[01/06/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -512,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -577,76 +607,145 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>SUM(Table2[05/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[19/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="C13">
-        <f>SUM(Table2[06/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[20/05/2014])</f>
+        <v>2</v>
       </c>
       <c r="D13">
-        <f>SUM(Table2[07/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[21/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="E13">
-        <f>SUM(Table2[08/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[22/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="F13">
-        <f>SUM(Table2[09/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[23/05/2014])</f>
+        <v>2</v>
       </c>
       <c r="G13">
-        <f>SUM(Table2[10/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[24/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="H13">
-        <f>SUM(Table2[11/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[25/05/2014])</f>
+        <v>6</v>
       </c>
       <c r="I13">
-        <f>SUM(Table2[12/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[26/05/2014])</f>
+        <v>5</v>
       </c>
       <c r="J13">
-        <f>SUM(Table2[13/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[27/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="K13">
-        <f>SUM(Table2[14/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[28/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="L13">
-        <f>SUM(Table2[15/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table2[29/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="M13">
-        <f>SUM(Table2[16/05/2014])</f>
+        <f>SUM(Table2[30/05/2014])</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>SUM(Table2[17/05/2014])</f>
+        <f>SUM(Table2[31/05/2014])</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(Table2[18/05/2014])</f>
+        <f>SUM(Table2[01/06/2014])</f>
         <v>0</v>
       </c>
     </row>
@@ -661,24 +760,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:O9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -722,68 +821,96 @@
       <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>SUM(Table24[05/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[19/05/2014])</f>
+        <v>1</v>
       </c>
       <c r="C10">
-        <f>SUM(Table24[06/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[20/05/2014])</f>
+        <v>3</v>
       </c>
       <c r="D10">
-        <f>SUM(Table24[07/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[21/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="E10">
-        <f>SUM(Table24[08/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[22/05/2014])</f>
+        <v>2</v>
       </c>
       <c r="F10">
-        <f>SUM(Table24[09/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[23/05/2014])</f>
+        <v>3</v>
       </c>
       <c r="G10">
-        <f>SUM(Table24[10/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[24/05/2014])</f>
+        <v>12</v>
       </c>
       <c r="H10">
-        <f>SUM(Table24[11/05/2014])</f>
+        <f>SUM(Table24[25/05/2014])</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUM(Table24[12/05/2014])</f>
+        <f>SUM(Table24[26/05/2014])</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUM(Table24[13/05/2014])</f>
+        <f>SUM(Table24[27/05/2014])</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUM(Table24[14/05/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[28/05/2014])</f>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f>SUM(Table24[15/05/2014])</f>
+        <f>SUM(Table24[29/05/2014])</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>SUM(Table24[16/05/2014])</f>
+        <f>SUM(Table24[30/05/2014])</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>SUM(Table24[17/05/2014])</f>
+        <f>SUM(Table24[31/05/2014])</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(Table24[18/05/2014])</f>
+        <f>SUM(Table24[01/06/2014])</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/Sprint 7 - 1905 To 0106/LogTime_sprint 7.xlsx
+++ b/docs/Sprint 7 - 1905 To 0106/LogTime_sprint 7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +682,15 @@
       <c r="K9">
         <v>4</v>
       </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -738,15 +747,15 @@
       </c>
       <c r="M13">
         <f>SUM(Table2[30/05/2014])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f>SUM(Table2[31/05/2014])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13">
         <f>SUM(Table2[01/06/2014])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -762,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +853,12 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -899,7 +914,7 @@
       </c>
       <c r="L10">
         <f>SUM(Table24[29/05/2014])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f>SUM(Table24[30/05/2014])</f>
@@ -911,7 +926,7 @@
       </c>
       <c r="O10">
         <f>SUM(Table24[01/06/2014])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
